--- a/Produksi_Tanaman_Buah-buahan_2021.xlsx
+++ b/Produksi_Tanaman_Buah-buahan_2021.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zixmatrix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3825EA0-488A-42B0-8C02-373CC6DD0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62E548-04B2-4D06-9C8A-3D265AA232B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="4150" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$B$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>ACEH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SUMATERA UTARA</t>
   </si>
@@ -49,9 +58,6 @@
     <t>LAMPUNG</t>
   </si>
   <si>
-    <t>KEP. BANGKA BELITUNG</t>
-  </si>
-  <si>
     <t>DKI JAKARTA</t>
   </si>
   <si>
@@ -121,9 +127,6 @@
     <t>PAPUA</t>
   </si>
   <si>
-    <t>INDONESIA</t>
-  </si>
-  <si>
     <t>PROVINSI</t>
   </si>
   <si>
@@ -134,6 +137,12 @@
   </si>
   <si>
     <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>DAERAH ISTIMEWA ACEH</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -525,47 +534,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>45915</v>
+        <v>25743</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>25743</v>
+        <v>29456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>29456</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>18639</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>9258</v>
@@ -573,7 +582,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>223</v>
@@ -581,7 +590,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>4381</v>
@@ -589,42 +598,42 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1353037</v>
+        <v>26209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>26209</v>
+        <v>86785</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86785</v>
+        <v>159199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>159199</v>
+        <v>275319</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>275319</v>
+        <v>37188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -632,15 +641,15 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>37188</v>
+        <v>28825</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>28825</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -648,119 +657,119 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>8239</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>13440</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>8436</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>6212</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>2714</v>
+        <v>20394</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>20394</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>8091</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>4686</v>
+        <v>40084</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>40084</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>3714</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>491</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>1425</v>
+        <v>30114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>30114</v>
+        <v>14653</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>14653</v>
+        <v>34070</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>34070</v>
+        <v>41273</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -768,53 +777,45 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>41273</v>
+        <v>12886</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>12886</v>
+        <v>18327</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>18327</v>
+        <v>170707</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>170707</v>
+        <v>46309</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>46309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
         <v>119632</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-      <sortCondition ref="A1:A36"/>
+  <autoFilter ref="A1:B35" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+      <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
